--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Cd63</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Cd63</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H2">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I2">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J2">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N2">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O2">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P2">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q2">
-        <v>2.194600028375334</v>
+        <v>5.685793005468443</v>
       </c>
       <c r="R2">
-        <v>19.751400255378</v>
+        <v>51.172137049216</v>
       </c>
       <c r="S2">
-        <v>0.003034797187767491</v>
+        <v>0.006075570226160709</v>
       </c>
       <c r="T2">
-        <v>0.00303479718776749</v>
+        <v>0.00607557022616071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H3">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I3">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J3">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N3">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O3">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P3">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q3">
-        <v>11.14734312177933</v>
+        <v>142.6142651035654</v>
       </c>
       <c r="R3">
-        <v>100.326088096014</v>
+        <v>1283.528385932089</v>
       </c>
       <c r="S3">
-        <v>0.01541507569472673</v>
+        <v>0.1523908770607146</v>
       </c>
       <c r="T3">
-        <v>0.01541507569472673</v>
+        <v>0.1523908770607146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H4">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I4">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J4">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N4">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O4">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P4">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q4">
-        <v>7.93849997865</v>
+        <v>100.8777917535671</v>
       </c>
       <c r="R4">
-        <v>71.44649980785002</v>
+        <v>907.9001257821039</v>
       </c>
       <c r="S4">
-        <v>0.01097773493976233</v>
+        <v>0.1077932502061456</v>
       </c>
       <c r="T4">
-        <v>0.01097773493976233</v>
+        <v>0.1077932502061456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H5">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I5">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J5">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N5">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O5">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P5">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q5">
-        <v>5.433486803742667</v>
+        <v>121.4442344828745</v>
       </c>
       <c r="R5">
-        <v>48.901381233684</v>
+        <v>1092.998110345871</v>
       </c>
       <c r="S5">
-        <v>0.007513683704805767</v>
+        <v>0.129769580857656</v>
       </c>
       <c r="T5">
-        <v>0.007513683704805765</v>
+        <v>0.129769580857656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H6">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I6">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J6">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N6">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O6">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P6">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q6">
-        <v>28.07675935187811</v>
+        <v>7.273143512021333</v>
       </c>
       <c r="R6">
-        <v>252.690834166903</v>
+        <v>65.458291608192</v>
       </c>
       <c r="S6">
-        <v>0.03882587679805298</v>
+        <v>0.007771738107548311</v>
       </c>
       <c r="T6">
-        <v>0.03882587679805298</v>
+        <v>0.007771738107548312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H7">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I7">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J7">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N7">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O7">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P7">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q7">
-        <v>142.6142651035654</v>
+        <v>182.4290852590103</v>
       </c>
       <c r="R7">
-        <v>1283.528385932089</v>
+        <v>1641.861767331093</v>
       </c>
       <c r="S7">
-        <v>0.197213781589274</v>
+        <v>0.1949351159494173</v>
       </c>
       <c r="T7">
-        <v>0.1972137815892741</v>
+        <v>0.1949351159494173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H8">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I8">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J8">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N8">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O8">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P8">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q8">
-        <v>101.561719964275</v>
+        <v>129.0406906994053</v>
       </c>
       <c r="R8">
-        <v>914.055479678475</v>
+        <v>1161.366216294648</v>
       </c>
       <c r="S8">
-        <v>0.1404443717065776</v>
+        <v>0.1378867956716845</v>
       </c>
       <c r="T8">
-        <v>0.1404443717065776</v>
+        <v>0.1378867956716845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H9">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I9">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J9">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N9">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O9">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P9">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q9">
-        <v>69.51366967001488</v>
+        <v>155.3488396872697</v>
       </c>
       <c r="R9">
-        <v>625.6230270301339</v>
+        <v>1398.139557185427</v>
       </c>
       <c r="S9">
-        <v>0.0961268051117877</v>
+        <v>0.1659984428143683</v>
       </c>
       <c r="T9">
-        <v>0.0961268051117877</v>
+        <v>0.1659984428143683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H10">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I10">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J10">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N10">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O10">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P10">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q10">
-        <v>29.13641814067111</v>
+        <v>1.398065139427555</v>
       </c>
       <c r="R10">
-        <v>262.22776326604</v>
+        <v>12.582586254848</v>
       </c>
       <c r="S10">
-        <v>0.04029122331707349</v>
+        <v>0.001493906466023285</v>
       </c>
       <c r="T10">
-        <v>0.04029122331707349</v>
+        <v>0.001493906466023285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H11">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I11">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J11">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N11">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O11">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P11">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q11">
-        <v>147.9967402507244</v>
+        <v>35.06705788174356</v>
       </c>
       <c r="R11">
-        <v>1331.97066225652</v>
+        <v>315.603520935692</v>
       </c>
       <c r="S11">
-        <v>0.2046569239517205</v>
+        <v>0.03747100405879484</v>
       </c>
       <c r="T11">
-        <v>0.2046569239517205</v>
+        <v>0.03747100405879484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H12">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I12">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J12">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N12">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O12">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P12">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q12">
-        <v>105.394810807</v>
+        <v>24.80458290645689</v>
       </c>
       <c r="R12">
-        <v>948.5532972630001</v>
+        <v>223.241246158112</v>
       </c>
       <c r="S12">
-        <v>0.145744951839428</v>
+        <v>0.02650500734618077</v>
       </c>
       <c r="T12">
-        <v>0.145744951839428</v>
+        <v>0.02650500734618077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H13">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I13">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J13">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N13">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O13">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P13">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q13">
-        <v>72.13721927856889</v>
+        <v>29.86161305057644</v>
       </c>
       <c r="R13">
-        <v>649.23497350712</v>
+        <v>268.754517455188</v>
       </c>
       <c r="S13">
-        <v>0.09975477415902335</v>
+        <v>0.03190871123530584</v>
       </c>
       <c r="T13">
-        <v>0.09975477415902334</v>
+        <v>0.03190871123530584</v>
       </c>
     </row>
   </sheetData>
